--- a/data/georgia_census/kakheti/yvareli/population_total.xlsx
+++ b/data/georgia_census/kakheti/yvareli/population_total.xlsx
@@ -1368,13 +1368,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{736F3CB9-551C-49E3-A8E6-4F7450739861}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C914559C-7C99-4FD5-9867-6EB11B9C0529}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BA8283CE-B73A-4AB3-8F4A-66E0A6D527C9}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{35DCACFB-908B-48BC-BA4E-06AAE9A5FC57}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DF87A060-56A6-4E84-9F52-D1AB21556DB4}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0C3F5BB9-1345-41BC-97FF-123D4251DAFB}"/>
 </file>